--- a/Dokumentation/Definitionsliste.xlsx
+++ b/Dokumentation/Definitionsliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Rap\Rap\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FC32702-E512-4E15-9AF7-811EF2A75700}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF62FC4A-C7E1-40D4-979D-61ACAC5B8A1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3EFB8C63-3ADC-41EB-96D7-9E6214ED7EBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3EFB8C63-3ADC-41EB-96D7-9E6214ED7EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Bezeichnung</t>
   </si>
   <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>labelled / tagged</t>
-  </si>
-  <si>
     <t>free for profit / f4p</t>
   </si>
   <si>
@@ -57,33 +51,21 @@
     <t>Track</t>
   </si>
   <si>
-    <t>Nav-Bar</t>
-  </si>
-  <si>
     <t>Beat</t>
   </si>
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
     <t>Snippet</t>
   </si>
   <si>
     <t>Key</t>
   </si>
   <si>
-    <t>Default-Label/Tag</t>
-  </si>
-  <si>
     <t>Queue-Seite</t>
   </si>
   <si>
     <t>Definition</t>
   </si>
   <si>
-    <t>Werke von anderen Usern, die gelabelled sind, können nicht verwendet werden, da über den Beat bzw. über das Sample ein label rübergespielt wurde. Erst nach weiterer Absprache mit dem jeweiligen Künstler können diese Werke ohne label verwendet werden.</t>
-  </si>
-  <si>
     <t>User können sich free for profit / f4p getaggte Werke downloaden und diese ohne Konsequenzen für ihre eigenen Zwecke nutzen.</t>
   </si>
   <si>
@@ -96,25 +78,40 @@
     <t>Track ist eine andere Definition für Werk.</t>
   </si>
   <si>
-    <t>Nav-Bar bzw Navigation-Bar ist die Leiste ganz oben auf der Website, um sich durch die Website navigieren zu können</t>
-  </si>
-  <si>
     <t>Eine Hörprobe</t>
   </si>
   <si>
-    <t>Ein Zusammenschnitt von Musik um Eindruck zu vermitteln</t>
-  </si>
-  <si>
     <t>Ein Key ist die Tonart die beim Werk verwendet wird.</t>
   </si>
   <si>
-    <t>Ein von uns zu Verfügung gestelltes Label/Tag um sein Werk zu labellen / taggen</t>
-  </si>
-  <si>
     <t>Eine Warteschlangen-Seite, wo man jeden Upload überprüfen kann.</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Ein Text der Information über einen bestimmten Track dienen soll. Jeder Track kann bis zu 5 Tags haben die alle 30 Zeichen lang sein können. Tags werden von uns benutzt um die Suchfunktion zu erleichtern und Usern ermittel nach Tags zu suchen.</t>
+  </si>
+  <si>
+    <t>Einfach erklärt ist ein Beat das was übrig bleibt wenn man die Vocals aus einem fertigen Lied entfernt.</t>
+  </si>
+  <si>
+    <t>Sample/Loop</t>
+  </si>
+  <si>
+    <t>Eine Melodie der erstellt wird um von anderen Leuten verwendet zu werden um einen fertigen Beat zu erstellen.</t>
+  </si>
+  <si>
+    <t>tagged</t>
+  </si>
+  <si>
+    <t>Werke von anderen Usern, die getagged sind, können nicht verwendet werden, da über den Beat bzw. über das Sample ein getagged rübergespielt wurde. Erst nach weiterer Absprache mit dem jeweiligen Künstler können diese Werke ohne tag verwendet werden.</t>
+  </si>
+  <si>
+    <t>Default-Tag</t>
+  </si>
+  <si>
+    <t>Ein von uns zu Verfügung gestelltes Tag um sein Werk zu taggen. Ein Tag heißt soviel wie eine Audioaufnahme die über ein musikalisches Werk gespielt wird um Diebstahl des Werkes zu verhindern oder um den Ersteller zu kennzeichnen, indem beispielsweise sein Name als Tag benutzt wird.</t>
+  </si>
+  <si>
+    <t>Tag</t>
   </si>
 </sst>
 </file>
@@ -178,7 +175,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -194,7 +191,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -490,13 +487,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6D4873-2376-4BA0-9E7C-7BB89B858E6D}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" customWidth="1"/>
@@ -507,116 +504,111 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -629,9 +621,6 @@
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
